--- a/propostas.xlsx
+++ b/propostas.xlsx
@@ -398,198 +398,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>id</v>
+        <v>Nome</v>
       </c>
       <c r="B1" t="str">
-        <v>cpf</v>
+        <v>Login</v>
       </c>
       <c r="C1" t="str">
-        <v>data</v>
+        <v>Status</v>
       </c>
       <c r="D1" t="str">
-        <v>login</v>
+        <v>CPF</v>
       </c>
       <c r="E1" t="str">
-        <v>nome</v>
+        <v>Data</v>
       </c>
       <c r="F1" t="str">
-        <v>status</v>
-      </c>
-      <c r="G1" t="str">
-        <v>valor</v>
+        <v>Valor</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1</v>
+        <v>Lucas Oliveira</v>
       </c>
       <c r="B2" t="str">
+        <v>digitador1@example.com</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Finalizada</v>
+      </c>
+      <c r="D2" t="str">
         <v>66636955090</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E2" s="1">
         <v>45712.75783371528</v>
       </c>
-      <c r="D2" t="str">
-        <v>digitador1@example.com</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Lucas Oliveira</v>
-      </c>
       <c r="F2" t="str">
-        <v>Finalizada</v>
-      </c>
-      <c r="G2" t="str">
         <v>7526.22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2</v>
+        <v>Lucas Oliveira</v>
       </c>
       <c r="B3" t="str">
+        <v>digitador2@example.com</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Finalizada</v>
+      </c>
+      <c r="D3" t="str">
         <v>66636955090</v>
       </c>
-      <c r="C3" s="1">
+      <c r="E3" s="1">
         <v>45712.75783371528</v>
       </c>
-      <c r="D3" t="str">
-        <v>digitador2@example.com</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Lucas Oliveira</v>
-      </c>
       <c r="F3" t="str">
-        <v>Finalizada</v>
-      </c>
-      <c r="G3" t="str">
         <v>7526.22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>3</v>
+        <v>João Souza</v>
       </c>
       <c r="B4" t="str">
+        <v>digitador3@example.com</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Finalizada</v>
+      </c>
+      <c r="D4" t="str">
         <v>33021861423</v>
       </c>
-      <c r="C4" s="1">
+      <c r="E4" s="1">
         <v>45712.79178900463</v>
       </c>
-      <c r="D4" t="str">
-        <v>digitador3@example.com</v>
-      </c>
-      <c r="E4" t="str">
-        <v>João Souza</v>
-      </c>
       <c r="F4" t="str">
-        <v>Finalizada</v>
-      </c>
-      <c r="G4" t="str">
         <v>5611.77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>4</v>
+        <v>Lucas Martins</v>
       </c>
       <c r="B5" t="str">
+        <v>digitador4@example.com</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Finalizada</v>
+      </c>
+      <c r="D5" t="str">
         <v>91650026951</v>
       </c>
-      <c r="C5" s="1">
+      <c r="E5" s="1">
         <v>45750.01675231481</v>
       </c>
-      <c r="D5" t="str">
-        <v>digitador4@example.com</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Lucas Martins</v>
-      </c>
       <c r="F5" t="str">
-        <v>Finalizada</v>
-      </c>
-      <c r="G5" t="str">
         <v>552.97</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>5</v>
+        <v>Gustavo Souza</v>
       </c>
       <c r="B6" t="str">
+        <v>digitador5@example.com</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Finalizada</v>
+      </c>
+      <c r="D6" t="str">
         <v>37989271540</v>
       </c>
-      <c r="C6" s="1">
+      <c r="E6" s="1">
         <v>45750.017446921294</v>
       </c>
-      <c r="D6" t="str">
-        <v>digitador5@example.com</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Gustavo Souza</v>
-      </c>
       <c r="F6" t="str">
-        <v>Finalizada</v>
-      </c>
-      <c r="G6" t="str">
         <v>3201.52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>6</v>
+        <v>Juliana Oliveira</v>
       </c>
       <c r="B7" t="str">
+        <v>digitador6@example.com</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Andamento</v>
+      </c>
+      <c r="D7" t="str">
         <v>93646078995</v>
       </c>
-      <c r="C7" s="1">
+      <c r="E7" s="1">
         <v>45750.01814140046</v>
       </c>
-      <c r="D7" t="str">
-        <v>digitador6@example.com</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Juliana Oliveira</v>
-      </c>
       <c r="F7" t="str">
-        <v>Andamento</v>
-      </c>
-      <c r="G7" t="str">
         <v>3931.62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>7</v>
+        <v>Juliana Costa</v>
       </c>
       <c r="B8" t="str">
+        <v>digitador7@example.com</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Criado</v>
+      </c>
+      <c r="D8" t="str">
         <v>08228333951</v>
       </c>
-      <c r="C8" s="1">
+      <c r="E8" s="1">
         <v>45750.01883587963</v>
       </c>
-      <c r="D8" t="str">
-        <v>digitador7@example.com</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Juliana Costa</v>
-      </c>
       <c r="F8" t="str">
-        <v>Criado</v>
-      </c>
-      <c r="G8" t="str">
         <v>2680.50</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F8"/>
   </ignoredErrors>
 </worksheet>
 </file>